--- a/config_p3388/severe_rfi.xlsx
+++ b/config_p3388/severe_rfi.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\meas\p3388_general_rfi_tv\config_p3388\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE147779-ED42-441D-861C-3A65A16B3EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79220F48-2D09-457D-8E3C-8CDB36E995B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19050" yWindow="675" windowWidth="17085" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="1875" windowWidth="17085" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>J6</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -485,9 +488,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O182"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -556,11 +562,11 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E3" si="0">1-D2</f>
+        <f t="shared" ref="E2:E4" si="0">1-D2</f>
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F3" si="1">1-G2</f>
+        <f t="shared" ref="F2:F4" si="1">1-G2</f>
         <v>3.5000000000000031E-2</v>
       </c>
       <c r="G2" s="2">
@@ -593,106 +599,98 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>179</v>
+        <f ca="1">RANDBETWEEN(100,1000)</f>
+        <v>360</v>
       </c>
       <c r="D3" s="2">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000036E-2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1">
-        <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>25</v>
+      <c r="I3" s="2">
+        <v>200</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">RAND()*3</f>
-        <v>2.0064786786915123</v>
+        <v>50</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1">
-        <f ca="1">RANDBETWEEN(-10,10)</f>
-        <v>3</v>
+      <c r="L3" s="2">
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">RAND()*3</f>
-        <v>2.2671187175737244</v>
+        <v>6</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C62" ca="1" si="2">RANDBETWEEN(1,1024)</f>
-        <v>380</v>
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>372</v>
       </c>
       <c r="D4" s="2">
-        <f>D3</f>
         <v>0.96</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E12" si="3">1-D4</f>
+        <f t="shared" si="0"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F12" si="4">1-G4</f>
+        <f t="shared" si="1"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="G4" s="2">
-        <f>G3</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I62" ca="1" si="5">RANDBETWEEN(1,30)</f>
-        <v>30</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>12</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J62" ca="1" si="6">RAND()*3</f>
-        <v>1.2903366488539934</v>
+        <f ca="1">RAND()*3</f>
+        <v>1.1158859013057822</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L62" ca="1" si="7">RANDBETWEEN(-10,10)</f>
-        <v>-5</v>
+        <f ca="1">RANDBETWEEN(-10,10)</f>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M62" ca="1" si="8">RAND()*3</f>
-        <v>1.4173079361896277</v>
+        <f ca="1">RAND()*3</f>
+        <v>1.6095638755425496</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
@@ -703,52 +701,52 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>986</v>
+        <f t="shared" ref="C5:C63" ca="1" si="2">RANDBETWEEN(1,1024)</f>
+        <v>733</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D12" si="9">D4</f>
+        <f>D4</f>
         <v>0.96</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E5:E13" si="3">1-D5</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F5:F13" si="4">1-G5</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G12" si="10">G4</f>
+        <f>G4</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <f t="shared" ref="I5:I63" ca="1" si="5">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.7400267507141001</v>
+        <f t="shared" ref="J5:J63" ca="1" si="6">RAND()*3</f>
+        <v>2.5679451546875569</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="L5:L63" ca="1" si="7">RANDBETWEEN(-10,10)</f>
         <v>-5</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.3417327218307703</v>
+        <f t="shared" ref="M5:M63" ca="1" si="8">RAND()*3</f>
+        <v>2.725861889212311</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -759,17 +757,17 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>468</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D6:D13" si="9">D5</f>
         <v>0.96</v>
       </c>
       <c r="E6" s="2">
@@ -781,7 +779,7 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G6:G13" si="10">G5</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -789,22 +787,22 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1686877081149929</v>
+        <v>2.1425470082570923</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.14338336697085</v>
+        <v>1.2639826459219212</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -815,14 +813,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>343</v>
+        <v>1014</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="9"/>
@@ -845,11 +843,11 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7589998348102522</v>
+        <v>1.7750074860649196</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>11</v>
@@ -860,7 +858,7 @@
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7677468502822649</v>
+        <v>0.59802726567952491</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -871,14 +869,14 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>686</v>
+        <v>429</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="9"/>
@@ -901,22 +899,22 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.76851504694248263</v>
+        <v>2.7154366835573787</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.47097625814483823</v>
+        <v>0.84437026293339046</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
@@ -927,14 +925,14 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="9"/>
@@ -957,22 +955,22 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1404646098147997</v>
+        <v>1.8212661594876902</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.904435032120082</v>
+        <v>0.99712117630691677</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -983,14 +981,14 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <f ca="1">RANDBETWEEN(1,1024)</f>
-        <v>144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>800</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="9"/>
@@ -1013,22 +1011,22 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0981262012144093</v>
+        <v>0.33079499199087647</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.2645766862904488</v>
+        <v>1.2315121481590803</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -1039,14 +1037,14 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>894</v>
+        <f ca="1">RANDBETWEEN(1,1024)</f>
+        <v>370</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="9"/>
@@ -1069,22 +1067,22 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1838754061486063E-2</v>
+        <v>1.7229030737688897</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0287777054860552</v>
+        <v>0.66003328530222038</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -1095,14 +1093,14 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>755</v>
+        <v>610</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="9"/>
@@ -1125,22 +1123,22 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8557532164958395E-2</v>
+        <v>0.15061701378861669</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8995235119148033</v>
+        <v>0.45423679279855078</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
@@ -1151,29 +1149,29 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>450</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:D20" si="11">D12</f>
+        <f t="shared" si="9"/>
         <v>0.96</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:E20" si="12">1-D13</f>
+        <f t="shared" si="3"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ref="F13:F20" si="13">1-G13</f>
+        <f t="shared" si="4"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" ref="G13:G20" si="14">G12</f>
+        <f t="shared" si="10"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1185,18 +1183,18 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3661976591370766</v>
+        <v>2.8456890778138932</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9044447596505716</v>
+        <v>2.6971042661204625</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -1207,29 +1205,29 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>458</v>
+        <v>1019</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D14:D21" si="11">D13</f>
         <v>0.96</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E14:E21" si="12">1-D14</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F14:F21" si="13">1-G14</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G14:G21" si="14">G13</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1237,11 +1235,11 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4724585861717876E-2</v>
+        <v>0.99841204411730511</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>11</v>
@@ -1252,7 +1250,7 @@
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2818798259721689E-2</v>
+        <v>2.017559843150297</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -1263,14 +1261,14 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>822</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="11"/>
@@ -1293,22 +1291,22 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.12789134790905721</v>
+        <v>0.57346016945242528</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0751464161419941</v>
+        <v>0.23976268338851703</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -1319,14 +1317,14 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>680</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="11"/>
@@ -1349,22 +1347,22 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.6309151848604628</v>
+        <v>2.7603887444638522</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6044979715360528</v>
+        <v>1.7842745405950682</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
@@ -1375,14 +1373,14 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>820</v>
+        <v>671</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="11"/>
@@ -1405,22 +1403,22 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3128698097907894</v>
+        <v>2.056411695381914</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37396654258656403</v>
+        <v>0.32545839975482982</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -1431,14 +1429,14 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>426</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="11"/>
@@ -1461,22 +1459,22 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5255234300191045</v>
+        <v>1.8714630997467645</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.66676787058489706</v>
+        <v>0.4767526734975055</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -1487,14 +1485,14 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>996</v>
+        <v>923</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="11"/>
@@ -1517,22 +1515,22 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2203600006708653</v>
+        <v>2.2807989115095353</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.5983951599309787</v>
+        <v>0.62686564320018812</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
@@ -1543,14 +1541,14 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="11"/>
@@ -1573,22 +1571,22 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1639440312917457</v>
+        <v>1.5237585581843309</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.4028365222905691</v>
+        <v>0.96145543073097361</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -1599,29 +1597,29 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>999</v>
+        <v>580</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21:D62" si="15">D20</f>
+        <f t="shared" si="11"/>
         <v>0.96</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ref="E21:E22" si="16">1-D21</f>
+        <f t="shared" si="12"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ref="F21:F22" si="17">1-G21</f>
+        <f t="shared" si="13"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" ref="G21:G62" si="18">G20</f>
+        <f t="shared" si="14"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1629,22 +1627,22 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4715462681542926</v>
+        <v>2.092195821868732</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8395537753945521</v>
+        <v>2.4739920029358835</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -1655,29 +1653,29 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>718</v>
+        <v>355</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="D22:D63" si="15">D21</f>
         <v>0.96</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="E22:E23" si="16">1-D22</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="F22:F23" si="17">1-G22</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="G22:G63" si="18">G21</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1685,22 +1683,22 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9483121975109485</v>
+        <v>2.2067985462215778E-2</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4778427076966762</v>
+        <v>0.90643032241161836</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
@@ -1718,18 +1716,18 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>603</v>
+        <v>780</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="15"/>
         <v>0.96</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ref="E23:E32" si="19">1-D23</f>
+        <f t="shared" si="16"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" ref="F23:F32" si="20">1-G23</f>
+        <f t="shared" si="17"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="G23" s="2">
@@ -1741,22 +1739,22 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.93922376924435591</v>
+        <v>1.5161353612817177</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4212103802604314</v>
+        <v>0.63569806952355057</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -1774,18 +1772,18 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>891</v>
+        <v>334</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="15"/>
         <v>0.96</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="E24:E33" si="19">1-D24</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="F24:F33" si="20">1-G24</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="G24" s="2">
@@ -1797,22 +1795,22 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27522062137779268</v>
+        <v>2.5246541047491142</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8277565454178126</v>
+        <v>1.7988933691088163</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
@@ -1830,7 +1828,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="15"/>
@@ -1853,22 +1851,22 @@
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55654500179713973</v>
+        <v>0.71322010679130432</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1440741913478911</v>
+        <v>2.077896536555945</v>
       </c>
       <c r="N25" s="1">
         <v>0</v>
@@ -1886,7 +1884,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="15"/>
@@ -1909,22 +1907,22 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97983866466686886</v>
+        <v>1.3680997595559725</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2248138740605274</v>
+        <v>2.0721681296828929</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
@@ -1942,7 +1940,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="15"/>
@@ -1965,22 +1963,22 @@
       </c>
       <c r="I27" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8300266693204117</v>
+        <v>0.51520580937810012</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1812726273657512</v>
+        <v>1.9138088465356202</v>
       </c>
       <c r="N27" s="1">
         <v>0</v>
@@ -1998,7 +1996,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>393</v>
+        <v>949</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="15"/>
@@ -2021,22 +2019,22 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>7.4113282910340805E-3</v>
+        <v>2.4605712467857481</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7132978361585147</v>
+        <v>2.0867996051428199</v>
       </c>
       <c r="N28" s="1">
         <v>0</v>
@@ -2054,7 +2052,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>487</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="15"/>
@@ -2077,22 +2075,22 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>7.989129361575964E-2</v>
+        <v>0.63033020529437855</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7190189156790314</v>
+        <v>0.80872011306020486</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
@@ -2110,7 +2108,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="15"/>
@@ -2133,22 +2131,22 @@
       </c>
       <c r="I30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1466137590314962</v>
+        <v>1.2705928341330648</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6379908340936145</v>
+        <v>1.4781286488341414</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
@@ -2166,7 +2164,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>360</v>
+        <v>941</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="15"/>
@@ -2189,22 +2187,22 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50670410979532021</v>
+        <v>0.40107754072944413</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.99206761880333127</v>
+        <v>1.0214952426030566</v>
       </c>
       <c r="N31" s="1">
         <v>0</v>
@@ -2222,7 +2220,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>617</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="15"/>
@@ -2245,22 +2243,22 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77709281489343396</v>
+        <v>2.9880913007832506</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0135936637858585</v>
+        <v>1.4910226535863278</v>
       </c>
       <c r="N32" s="1">
         <v>0</v>
@@ -2278,18 +2276,18 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>375</v>
+        <v>788</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="15"/>
         <v>0.96</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" ref="E33:E62" si="21">1-D33</f>
+        <f t="shared" si="19"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" ref="F33:F62" si="22">1-G33</f>
+        <f t="shared" si="20"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="G33" s="2">
@@ -2301,22 +2299,22 @@
       </c>
       <c r="I33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0371071262734743</v>
+        <v>2.5225747407111778</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0427538142230288</v>
+        <v>0.21952850174812677</v>
       </c>
       <c r="N33" s="1">
         <v>0</v>
@@ -2334,18 +2332,18 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1019</v>
+        <v>737</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="15"/>
         <v>0.96</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="E34:E63" si="21">1-D34</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="F34:F63" si="22">1-G34</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="G34" s="2">
@@ -2357,22 +2355,22 @@
       </c>
       <c r="I34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36294016108191141</v>
+        <v>1.3894064270205</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6049397073007761</v>
+        <v>2.0017800131729677</v>
       </c>
       <c r="N34" s="1">
         <v>0</v>
@@ -2390,7 +2388,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="15"/>
@@ -2413,22 +2411,22 @@
       </c>
       <c r="I35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56465387381353904</v>
+        <v>1.0594902497240337</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8423254847205497</v>
+        <v>1.8647365460743863</v>
       </c>
       <c r="N35" s="1">
         <v>0</v>
@@ -2446,7 +2444,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>768</v>
+        <v>419</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="15"/>
@@ -2469,22 +2467,22 @@
       </c>
       <c r="I36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0381553558245709</v>
+        <v>0.88220168433195667</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1099765043205387</v>
+        <v>2.3984879539455108</v>
       </c>
       <c r="N36" s="1">
         <v>0</v>
@@ -2502,7 +2500,7 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>888</v>
+        <v>58</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="15"/>
@@ -2525,22 +2523,22 @@
       </c>
       <c r="I37" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.977391350456456</v>
+        <v>2.3433934707900783E-2</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-3</v>
+        <v>10</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7359916045963453</v>
+        <v>2.106341096218785</v>
       </c>
       <c r="N37" s="1">
         <v>0</v>
@@ -2558,7 +2556,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="15"/>
@@ -2581,22 +2579,22 @@
       </c>
       <c r="I38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78163101108777022</v>
+        <v>0.93965217198223483</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8553818746551778</v>
+        <v>0.52270690553298882</v>
       </c>
       <c r="N38" s="1">
         <v>0</v>
@@ -2614,7 +2612,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="15"/>
@@ -2637,22 +2635,22 @@
       </c>
       <c r="I39" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8034835401647904</v>
+        <v>1.2052001767923257</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1747904326814977</v>
+        <v>1.1110886996830804</v>
       </c>
       <c r="N39" s="1">
         <v>0</v>
@@ -2670,7 +2668,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>960</v>
+        <v>692</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="15"/>
@@ -2693,22 +2691,22 @@
       </c>
       <c r="I40" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9061420813660739</v>
+        <v>1.5570537004527223</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9.4133475606938743E-2</v>
+        <v>1.4390021070588181</v>
       </c>
       <c r="N40" s="1">
         <v>0</v>
@@ -2726,7 +2724,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>767</v>
+        <v>236</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="15"/>
@@ -2749,11 +2747,11 @@
       </c>
       <c r="I41" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7684282429818112</v>
+        <v>1.774819091820363</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>11</v>
@@ -2764,7 +2762,7 @@
       </c>
       <c r="M41" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17296397621154003</v>
+        <v>2.6691727343438401</v>
       </c>
       <c r="N41" s="1">
         <v>0</v>
@@ -2782,7 +2780,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>1010</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="15"/>
@@ -2805,22 +2803,22 @@
       </c>
       <c r="I42" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2528300916834199</v>
+        <v>1.5417241729603455</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6718337319780048</v>
+        <v>0.4683146961088166</v>
       </c>
       <c r="N42" s="1">
         <v>0</v>
@@ -2838,7 +2836,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>635</v>
+        <v>850</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="15"/>
@@ -2861,22 +2859,22 @@
       </c>
       <c r="I43" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0238264948213436</v>
+        <v>2.7288544499153464</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7252600262003077</v>
+        <v>1.64770529822806</v>
       </c>
       <c r="N43" s="1">
         <v>0</v>
@@ -2894,7 +2892,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>249</v>
+        <v>701</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="15"/>
@@ -2917,22 +2915,22 @@
       </c>
       <c r="I44" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3758893238317536</v>
+        <v>1.1164086301099763</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5840807534589176</v>
+        <v>2.0521853287657073</v>
       </c>
       <c r="N44" s="1">
         <v>0</v>
@@ -2950,7 +2948,7 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>548</v>
+        <v>86</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="15"/>
@@ -2973,22 +2971,22 @@
       </c>
       <c r="I45" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5055057841707713</v>
+        <v>0.69085719264801471</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0820096031806488</v>
+        <v>0.25612847768779634</v>
       </c>
       <c r="N45" s="1">
         <v>0</v>
@@ -3006,7 +3004,7 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>442</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="15"/>
@@ -3029,22 +3027,22 @@
       </c>
       <c r="I46" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J46" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0522798490675187</v>
+        <v>0.65178585728954841</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6082578537636509</v>
+        <v>1.1565917196826454</v>
       </c>
       <c r="N46" s="1">
         <v>0</v>
@@ -3062,7 +3060,7 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>842</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="15"/>
@@ -3085,22 +3083,22 @@
       </c>
       <c r="I47" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J47" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5085048852467251</v>
+        <v>0.8481600758241109</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.86850927055051985</v>
+        <v>1.4413266628428492</v>
       </c>
       <c r="N47" s="1">
         <v>0</v>
@@ -3118,7 +3116,7 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="15"/>
@@ -3141,22 +3139,22 @@
       </c>
       <c r="I48" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J48" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.3473046051133527</v>
+        <v>1.9196699463768563E-2</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30552570222858511</v>
+        <v>1.0832652899659179</v>
       </c>
       <c r="N48" s="1">
         <v>0</v>
@@ -3174,7 +3172,7 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="15"/>
@@ -3197,22 +3195,22 @@
       </c>
       <c r="I49" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J49" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9162285799776893</v>
+        <v>2.2852841274166069</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.1569522842233122</v>
+        <v>1.649524464720419</v>
       </c>
       <c r="N49" s="1">
         <v>0</v>
@@ -3230,7 +3228,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>492</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="15"/>
@@ -3253,22 +3251,22 @@
       </c>
       <c r="I50" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J50" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2470977377650603</v>
+        <v>1.1120257399096332</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1372673090256447</v>
+        <v>2.4607685998801516</v>
       </c>
       <c r="N50" s="1">
         <v>0</v>
@@ -3286,7 +3284,7 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>777</v>
+        <v>394</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" si="15"/>
@@ -3309,11 +3307,11 @@
       </c>
       <c r="I51" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J51" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8948118335222257</v>
+        <v>1.178576146880383</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>11</v>
@@ -3324,7 +3322,7 @@
       </c>
       <c r="M51" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7909938870360689</v>
+        <v>2.3255904759737258</v>
       </c>
       <c r="N51" s="1">
         <v>0</v>
@@ -3342,7 +3340,7 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>737</v>
+        <v>167</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="15"/>
@@ -3365,22 +3363,22 @@
       </c>
       <c r="I52" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J52" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84978207775466019</v>
+        <v>1.0212920950130648</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.98528993877093118</v>
+        <v>1.1024623558140767</v>
       </c>
       <c r="N52" s="1">
         <v>0</v>
@@ -3398,7 +3396,7 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="15"/>
@@ -3421,22 +3419,22 @@
       </c>
       <c r="I53" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J53" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1326265129630315</v>
+        <v>2.4242100194533549</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0705024786432766</v>
+        <v>2.7434064898108614</v>
       </c>
       <c r="N53" s="1">
         <v>0</v>
@@ -3454,7 +3452,7 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>543</v>
+        <v>669</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="15"/>
@@ -3477,22 +3475,22 @@
       </c>
       <c r="I54" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2663178779292315</v>
+        <v>2.1972845991343779</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.98419867706028741</v>
+        <v>1.8758097835575795</v>
       </c>
       <c r="N54" s="1">
         <v>0</v>
@@ -3510,7 +3508,7 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>899</v>
+        <v>115</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="15"/>
@@ -3533,22 +3531,22 @@
       </c>
       <c r="I55" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.75539257670907844</v>
+        <v>0.69458285546525955</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2.9346114446183744</v>
+        <v>2.7307038718908041</v>
       </c>
       <c r="N55" s="1">
         <v>0</v>
@@ -3566,7 +3564,7 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>400</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="15"/>
@@ -3589,22 +3587,22 @@
       </c>
       <c r="I56" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2006034838219186E-2</v>
+        <v>2.2048429844718309</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0675991872482584</v>
+        <v>0.6381048736112086</v>
       </c>
       <c r="N56" s="1">
         <v>0</v>
@@ -3622,7 +3620,7 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>671</v>
+        <v>292</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="15"/>
@@ -3645,22 +3643,22 @@
       </c>
       <c r="I57" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J57" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97987479865393867</v>
+        <v>0.72437034604362371</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>8.8657136004202775E-2</v>
+        <v>2.3918289830652273</v>
       </c>
       <c r="N57" s="1">
         <v>0</v>
@@ -3678,7 +3676,7 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="15"/>
@@ -3701,22 +3699,22 @@
       </c>
       <c r="I58" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J58" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4293099410652068</v>
+        <v>2.4424716220081204</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9594953551446026</v>
+        <v>1.3190225166104996</v>
       </c>
       <c r="N58" s="1">
         <v>0</v>
@@ -3734,7 +3732,7 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>542</v>
+        <v>172</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" si="15"/>
@@ -3757,22 +3755,22 @@
       </c>
       <c r="I59" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J59" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0.73834349630069684</v>
+        <v>0.44028261148377856</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.924381136336363</v>
+        <v>2.0305749663678441</v>
       </c>
       <c r="N59" s="1">
         <v>0</v>
@@ -3790,7 +3788,7 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="15"/>
@@ -3813,22 +3811,22 @@
       </c>
       <c r="I60" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J60" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5280885150949883</v>
+        <v>1.3233210217644689</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.67208875490035513</v>
+        <v>2.8386570149713917</v>
       </c>
       <c r="N60" s="1">
         <v>0</v>
@@ -3846,7 +3844,7 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="15"/>
@@ -3869,22 +3867,22 @@
       </c>
       <c r="I61" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J61" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2.664884671580058</v>
+        <v>9.0151146919119407E-2</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19566156734616735</v>
+        <v>1.1130275911537355</v>
       </c>
       <c r="N61" s="1">
         <v>0</v>
@@ -3902,7 +3900,7 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>625</v>
+        <v>276</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" si="15"/>
@@ -3925,22 +3923,22 @@
       </c>
       <c r="I62" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J62" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3677849334905252</v>
+        <v>1.6631693666781802</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6967455772593443</v>
+        <v>2.1670385551901346</v>
       </c>
       <c r="N62" s="1">
         <v>0</v>
@@ -3950,12 +3948,60 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="M63" s="2"/>
+      <c r="A63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>889</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="15"/>
+        <v>0.96</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="21"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="22"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="18"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.83302644588561858</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.9643136480460424</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D64" s="2"/>
@@ -4909,6 +4955,14 @@
       <c r="J182" s="2"/>
       <c r="M182" s="2"/>
     </row>
+    <row r="183" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="M183" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
